--- a/Data/EC/NIT-8001789041.xlsx
+++ b/Data/EC/NIT-8001789041.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4EAE67C-F41A-4385-AF2D-6D1991165097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2A298F0-ABA6-4D72-8403-B07FE606506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9BE869D2-8367-4024-B1EC-A591887EAA55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A9F7C92-611F-4089-8C62-5015B5A449F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,24 @@
     <t>JOSE MADERA PEREZ</t>
   </si>
   <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2102</t>
   </si>
   <si>
@@ -78,24 +96,6 @@
   </si>
   <si>
     <t>MARTHA LUCIA RENGIFO SANGUINO</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4441B3-3EA3-2FB4-5460-552268773069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BAF8D10-D6A0-159A-8641-3A568A617FB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74DDA6A-C1D7-4DF7-A876-3F72ED9094D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E122C-9934-4A2B-B19A-D96A3F6F8D35}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37570</v>
+        <v>33942</v>
       </c>
       <c r="G16" s="18">
         <v>939249</v>
@@ -1052,19 +1052,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>37570</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>939249</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1075,19 +1075,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>37570</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>939249</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1144,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>37570</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>939249</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>37570</v>
@@ -1190,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>33942</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1213,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>37570</v>
+        <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>939249</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1236,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1259,13 +1259,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1282,19 +1282,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>37570</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>939249</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1305,19 +1305,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>33942</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>939249</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1328,16 +1328,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="24">
-        <v>33942</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="24">
         <v>908526</v>
